--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/Core.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/Core.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_932B076A6123F34900F5CD84F5B4B8662C73F92C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5606B17B-03CA-4E64-9728-5080C94110C1}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_932B076A6123F34900F5CD84F5B4B8662C73F92C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6305AB2-575E-4D60-899C-4279EAA10A61}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="166">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>Deluxe kit - Payment plan ID</t>
+  </si>
+  <si>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>IMTA37A</t>
@@ -3670,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE07B80-D7C4-4737-929B-C7104AB81A8E}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4429,7 +4432,7 @@
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="36" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B69" s="37" t="s">
         <v>126</v>
@@ -4600,7 +4603,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>150</v>
@@ -4818,6 +4821,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -4982,20 +4991,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470699F7-8A2E-4F06-9BFF-442D9A852AFC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4772C406-6101-4D6E-83CD-66FD6E50E059}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC257237-8DCB-4CCD-A149-9F83A165FD00}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC257237-8DCB-4CCD-A149-9F83A165FD00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4772C406-6101-4D6E-83CD-66FD6E50E059}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/Core.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/Core.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_932B076A6123F34900F5CD84F5B4B8662C73F92C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6305AB2-575E-4D60-899C-4279EAA10A61}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_932B076A6123F34900F5CD84F5B4B8662C73F92C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{296DB1EF-5C61-4C5B-B903-CC2C17C80BEE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
-    <sheet name="Pre-PU" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Active Campaign" sheetId="3" r:id="rId1"/>
+    <sheet name="Version 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Pre-PU" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -63,6 +63,9 @@
     <t>https://www.meaningfulbeauty.com</t>
   </si>
   <si>
+    <t>https://www.meaningfulbeauty.com/?src=core</t>
+  </si>
+  <si>
     <t>core</t>
   </si>
   <si>
@@ -147,13 +150,7 @@
     <t>Entry striked-out price</t>
   </si>
   <si>
-    <t>$69.95</t>
-  </si>
-  <si>
     <t>Entry Pricing</t>
-  </si>
-  <si>
-    <t>$55.96</t>
   </si>
   <si>
     <t>$49.95</t>
@@ -251,10 +248,13 @@
     <t>Post Purchase Upsell Payment Plan (Installment)</t>
   </si>
   <si>
-    <t>IMTA36J</t>
+    <t>IMTA36G</t>
   </si>
   <si>
     <t>IMTA36F</t>
+  </si>
+  <si>
+    <t>Deluxe kit - Payment plan ID</t>
   </si>
   <si>
     <t>Post Purchase Cart Language</t>
@@ -398,9 +398,6 @@
     <t>Pre-Purchase Entry Pricing</t>
   </si>
   <si>
-    <t>$65.96</t>
-  </si>
-  <si>
     <t>$59.95</t>
   </si>
   <si>
@@ -410,7 +407,7 @@
     <t>$0</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>RMTA483</t>
@@ -429,9 +426,6 @@
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 4</t>
-  </si>
-  <si>
-    <t>20% off Deluxe kit Fixed price promotion</t>
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 5</t>
@@ -484,7 +478,7 @@
     <t>RMTA3JC</t>
   </si>
   <si>
-    <t>IMTA38C</t>
+    <t>IMTA37A</t>
   </si>
   <si>
     <t>IMTA36L</t>
@@ -522,19 +516,25 @@
     <t>End</t>
   </si>
   <si>
-    <t>https://www.meaningfulbeauty.com/?src=core</t>
-  </si>
-  <si>
-    <t>IMTA36G</t>
-  </si>
-  <si>
-    <t>Deluxe kit - Payment plan ID</t>
-  </si>
-  <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
-  </si>
-  <si>
-    <t>IMTA37A</t>
+    <t>$69.95</t>
+  </si>
+  <si>
+    <t>$55.96</t>
+  </si>
+  <si>
+    <t>IMTA36J</t>
+  </si>
+  <si>
+    <t>$65.96</t>
+  </si>
+  <si>
+    <t>20% off Deluxe kit Fixed price promotion</t>
+  </si>
+  <si>
+    <t>IMTA38C</t>
+  </si>
+  <si>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
 </sst>
 </file>
@@ -1392,11 +1392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE07B80-D7C4-4737-929B-C7104AB81A8E}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1451,25 +1451,25 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="12">
         <v>53</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="12">
         <v>801</v>
@@ -1553,47 +1553,47 @@
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="30">
         <v>1</v>
@@ -1604,62 +1604,62 @@
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="30">
         <v>1</v>
@@ -1670,29 +1670,29 @@
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
       <c r="A23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="32">
         <v>0</v>
@@ -1703,120 +1703,1262 @@
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="110.25">
       <c r="A26" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="C26" s="33" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="94.5">
       <c r="A27" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="C27" s="33" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.5">
       <c r="A28" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>54</v>
+      <c r="C28" s="46" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>56</v>
-      </c>
       <c r="C29" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>58</v>
-      </c>
       <c r="C30" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="C31" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
     </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="C36" s="32">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="34">
+        <v>0</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="30">
+        <v>3</v>
+      </c>
+      <c r="C38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="110.25">
+      <c r="A40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="105">
+      <c r="A41" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="31.5">
+      <c r="A43" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
+      <c r="A44" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
+      <c r="A45" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
+      <c r="A47" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
+      <c r="A48" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75">
+      <c r="A50" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75">
+      <c r="A51" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75">
+      <c r="A52" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="30">
+        <v>3</v>
+      </c>
+      <c r="C52" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75">
+      <c r="A53" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75">
+      <c r="A54" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="C54" s="32">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75">
+      <c r="A55" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="32">
+        <v>4.99</v>
+      </c>
+      <c r="C55" s="32">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75">
+      <c r="A56" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75">
+      <c r="A57" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75">
+      <c r="A58" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+    </row>
+    <row r="59" spans="1:3" ht="31.5">
+      <c r="A59" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75">
+      <c r="A60" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75">
+      <c r="A61" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75">
+      <c r="A62" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75">
+      <c r="A63" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75">
+      <c r="A65" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="37">
+        <v>1</v>
+      </c>
+      <c r="C65" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75">
+      <c r="A66" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75">
+      <c r="A67" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="39">
+        <v>79.95</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="40">
+        <v>0</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75">
+      <c r="A69" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="31.5">
+      <c r="A70" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75">
+      <c r="A71" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75">
+      <c r="A72" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75">
+      <c r="A73" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75">
+      <c r="A74" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75">
+      <c r="A75" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="110.25">
+      <c r="A76" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="94.5">
+      <c r="A77" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75">
+      <c r="A78" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75">
+      <c r="A79" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75">
+      <c r="A80" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75">
+      <c r="A81" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="37">
+        <v>3</v>
+      </c>
+      <c r="C81" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75">
+      <c r="A82" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="39">
+        <v>79.95</v>
+      </c>
+      <c r="C82" s="39">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75">
+      <c r="A83" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75">
+      <c r="A84" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75">
+      <c r="A85" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="110.25">
+      <c r="A86" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="94.5">
+      <c r="A87" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75">
+      <c r="A88" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75">
+      <c r="A89" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+    </row>
+    <row r="90" spans="1:4" ht="31.5">
+      <c r="A90" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75">
+      <c r="A91" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75">
+      <c r="A92" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75">
+      <c r="A93" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.75">
+      <c r="A94" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75">
+      <c r="A95" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75">
+      <c r="A96" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75">
+      <c r="A97" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75">
+      <c r="A98" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75">
+      <c r="A99" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="37">
+        <v>3</v>
+      </c>
+      <c r="C99" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75">
+      <c r="A100" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="39">
+        <v>79.95</v>
+      </c>
+      <c r="C100" s="39">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75">
+      <c r="A101" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="39">
+        <v>4.99</v>
+      </c>
+      <c r="C101" s="39">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75">
+      <c r="A102" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75">
+      <c r="A103" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75">
+      <c r="A104" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A58:C58"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A56C4A82-9288-43EE-89C6-B7F6C17AF07E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{7DAECB81-5A9A-46DF-AFFE-6ED18154B91F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12">
+        <v>53</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12">
+        <v>801</v>
+      </c>
+      <c r="J2" s="13">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="14"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="30">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="30">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
+      <c r="A22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75">
+      <c r="A23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75">
+      <c r="A24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="32">
+        <v>0</v>
+      </c>
+      <c r="C24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75">
+      <c r="A25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="110.25">
+      <c r="A26" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="94.5">
+      <c r="A27" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5">
+      <c r="A28" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75">
+      <c r="A29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75">
+      <c r="A30" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75">
+      <c r="A31" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75">
+      <c r="A32" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+    </row>
     <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="C34" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="34">
         <v>55.96</v>
@@ -1827,7 +2969,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="34">
         <v>0</v>
@@ -1838,7 +2980,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="30">
         <v>3</v>
@@ -1847,13 +2989,13 @@
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>73</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="110.25">
@@ -1890,10 +3032,10 @@
         <v>82</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
@@ -1915,10 +3057,10 @@
         <v>85</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
@@ -1926,7 +3068,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="30"/>
     </row>
@@ -1935,10 +3077,10 @@
         <v>87</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
@@ -1949,7 +3091,7 @@
         <v>89</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75">
@@ -2071,7 +3213,7 @@
       </c>
       <c r="B61" s="38"/>
       <c r="C61" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
@@ -2126,7 +3268,7 @@
         <v>79.95</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
@@ -2134,128 +3276,128 @@
         <v>120</v>
       </c>
       <c r="B67" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="37" t="s">
         <v>121</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="40">
         <v>0</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="C69" s="37" t="s">
         <v>126</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="31.5">
       <c r="A70" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
     </row>
     <row r="73" spans="1:3" ht="15.75">
       <c r="A73" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="110.25">
       <c r="A76" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="37" t="s">
         <v>135</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="94.5">
       <c r="A77" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="37" t="s">
         <v>138</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
       <c r="A79" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B79" s="37" t="s">
         <v>114</v>
@@ -2266,7 +3408,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="37" t="s">
         <v>91</v>
@@ -2277,7 +3419,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" s="37">
         <v>3</v>
@@ -2288,7 +3430,7 @@
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="39">
         <v>65.959999999999994</v>
@@ -2299,35 +3441,35 @@
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
       <c r="A85" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="110.25">
@@ -2335,10 +3477,10 @@
         <v>75</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="94.5">
@@ -2346,22 +3488,22 @@
         <v>78</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
@@ -2371,10 +3513,10 @@
         <v>82</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
@@ -2396,7 +3538,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C93" s="37"/>
     </row>
@@ -2405,10 +3547,10 @@
         <v>86</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
@@ -2416,10 +3558,10 @@
         <v>87</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
@@ -2427,10 +3569,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75">
@@ -2501,7 +3643,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B103" s="37" t="s">
         <v>97</v>
@@ -2512,7 +3654,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
@@ -2531,7 +3673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17815C0-16E1-49C2-9BEC-3A992CF750CA}">
   <dimension ref="A1:J104"/>
   <sheetViews>
@@ -2592,22 +3734,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="12">
         <v>53</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="12">
         <v>801</v>
@@ -2691,47 +3833,47 @@
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="30">
         <v>1</v>
@@ -2742,62 +3884,62 @@
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="30">
         <v>1</v>
@@ -2808,13 +3950,13 @@
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
@@ -2822,15 +3964,15 @@
         <v>40</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="32">
         <v>0</v>
@@ -2841,120 +3983,120 @@
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="110.25">
       <c r="A26" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="C26" s="33" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="94.5">
       <c r="A27" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="C27" s="33" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.5">
       <c r="A28" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>54</v>
-      </c>
       <c r="C28" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>56</v>
-      </c>
       <c r="C29" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>58</v>
-      </c>
       <c r="C30" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="C31" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
     </row>
     <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="C34" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="34">
         <v>55.96</v>
@@ -2965,7 +4107,7 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="34">
         <v>0</v>
@@ -2976,7 +4118,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="30">
         <v>3</v>
@@ -2985,13 +4127,13 @@
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>73</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="110.25">
@@ -3028,10 +4170,10 @@
         <v>82</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
@@ -3053,10 +4195,10 @@
         <v>85</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
@@ -3064,7 +4206,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="30"/>
     </row>
@@ -3073,10 +4215,10 @@
         <v>87</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
@@ -3087,7 +4229,7 @@
         <v>89</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75">
@@ -3209,7 +4351,7 @@
       </c>
       <c r="B61" s="38"/>
       <c r="C61" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75">
@@ -3264,7 +4406,7 @@
         <v>79.95</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
@@ -3272,128 +4414,128 @@
         <v>120</v>
       </c>
       <c r="B67" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="37" t="s">
         <v>121</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="40">
         <v>0</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="C69" s="37" t="s">
         <v>126</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="31.5">
       <c r="A70" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
     </row>
     <row r="73" spans="1:3" ht="15.75">
       <c r="A73" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="110.25">
       <c r="A76" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="37" t="s">
         <v>135</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="94.5">
       <c r="A77" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="37" t="s">
         <v>138</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75">
       <c r="A79" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B79" s="37" t="s">
         <v>114</v>
@@ -3404,7 +4546,7 @@
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="37" t="s">
         <v>91</v>
@@ -3415,7 +4557,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" s="37">
         <v>3</v>
@@ -3426,7 +4568,7 @@
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="39">
         <v>65.959999999999994</v>
@@ -3437,35 +4579,35 @@
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75">
       <c r="A85" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="110.25">
@@ -3473,10 +4615,10 @@
         <v>75</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="94.5">
@@ -3484,22 +4626,22 @@
         <v>78</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
@@ -3509,10 +4651,10 @@
         <v>82</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75">
@@ -3534,7 +4676,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C93" s="37"/>
     </row>
@@ -3543,10 +4685,10 @@
         <v>86</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75">
@@ -3554,10 +4696,10 @@
         <v>87</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75">
@@ -3565,10 +4707,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75">
@@ -3639,7 +4781,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B103" s="37" t="s">
         <v>97</v>
@@ -3650,7 +4792,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
@@ -3669,1164 +4811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE07B80-D7C4-4737-929B-C7104AB81A8E}">
-  <dimension ref="A1:J104"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="57.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="12">
-        <v>53</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="12">
-        <v>801</v>
-      </c>
-      <c r="J2" s="13">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="14"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="30">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="30">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="32">
-        <v>0</v>
-      </c>
-      <c r="C24" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="110.25">
-      <c r="A26" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="94.5">
-      <c r="A27" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.5">
-      <c r="A28" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75">
-      <c r="A31" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75">
-      <c r="A34" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75">
-      <c r="A35" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75">
-      <c r="A36" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="C36" s="32">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="34">
-        <v>0</v>
-      </c>
-      <c r="C37" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75">
-      <c r="A38" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="30">
-        <v>3</v>
-      </c>
-      <c r="C38" s="30"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75">
-      <c r="A39" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="110.25">
-      <c r="A40" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="105">
-      <c r="A41" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75">
-      <c r="A42" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" ht="31.5">
-      <c r="A43" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75">
-      <c r="A44" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75">
-      <c r="A45" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75">
-      <c r="A46" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75">
-      <c r="A48" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75">
-      <c r="A50" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75">
-      <c r="A51" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75">
-      <c r="A52" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="30">
-        <v>3</v>
-      </c>
-      <c r="C52" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75">
-      <c r="A53" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75">
-      <c r="A54" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="C54" s="32">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="32">
-        <v>4.99</v>
-      </c>
-      <c r="C55" s="32">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75">
-      <c r="A58" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-    </row>
-    <row r="59" spans="1:3" ht="31.5">
-      <c r="A59" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75">
-      <c r="A60" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75">
-      <c r="A61" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75">
-      <c r="A62" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75">
-      <c r="A63" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="37">
-        <v>1</v>
-      </c>
-      <c r="C65" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75">
-      <c r="A66" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75">
-      <c r="A67" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="39">
-        <v>79.95</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A68" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="40">
-        <v>0</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75">
-      <c r="A69" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="31.5">
-      <c r="A70" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75">
-      <c r="A71" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75">
-      <c r="A72" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75">
-      <c r="A73" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75">
-      <c r="A74" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75">
-      <c r="A75" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="110.25">
-      <c r="A76" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="94.5">
-      <c r="A77" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75">
-      <c r="A78" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75">
-      <c r="A79" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75">
-      <c r="A80" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75">
-      <c r="A81" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="37">
-        <v>3</v>
-      </c>
-      <c r="C81" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="39">
-        <v>79.95</v>
-      </c>
-      <c r="C82" s="39">
-        <v>59.95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75">
-      <c r="A83" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75">
-      <c r="A84" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="110.25">
-      <c r="A86" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="94.5">
-      <c r="A87" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75">
-      <c r="A88" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75">
-      <c r="A89" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-    </row>
-    <row r="90" spans="1:4" ht="31.5">
-      <c r="A90" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75">
-      <c r="A91" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75">
-      <c r="A92" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-    </row>
-    <row r="93" spans="1:4" ht="15.75">
-      <c r="A93" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-    </row>
-    <row r="94" spans="1:4" ht="15.75">
-      <c r="A94" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75">
-      <c r="A96" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75">
-      <c r="A98" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B98" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" s="37">
-        <v>3</v>
-      </c>
-      <c r="C99" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75">
-      <c r="A100" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="39">
-        <v>79.95</v>
-      </c>
-      <c r="C100" s="39">
-        <v>59.95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75">
-      <c r="A101" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="39">
-        <v>4.99</v>
-      </c>
-      <c r="C101" s="39">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75">
-      <c r="A102" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75">
-      <c r="A103" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75">
-      <c r="A104" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A58:C58"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A56C4A82-9288-43EE-89C6-B7F6C17AF07E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{7DAECB81-5A9A-46DF-AFFE-6ED18154B91F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -4991,8 +4976,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470699F7-8A2E-4F06-9BFF-442D9A852AFC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4772C406-6101-4D6E-83CD-66FD6E50E059}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5000,5 +5000,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4772C406-6101-4D6E-83CD-66FD6E50E059}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470699F7-8A2E-4F06-9BFF-442D9A852AFC}"/>
 </file>